--- a/reports/Futures_Trades_Report.xlsx
+++ b/reports/Futures_Trades_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,97 +488,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-19 04:12:08</t>
+          <t>2025-06-19 04:23:52</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>645.5700000000001</v>
+        <v>0.6039</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-19 04:12:08</t>
+          <t>2025-06-19 04:23:52</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-5.16007523</v>
+        <v>-0.00195941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-19 04:12:08</t>
+          <t>2025-06-19 04:23:52</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>645.5700000000001</v>
+        <v>0.6039</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-19 04:12:08</t>
+          <t>2025-06-19 04:23:52</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.06730532</v>
+        <v>-0.79474058</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-19 04:12:08</t>
+          <t>2025-06-19 04:33:51</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>645.58</v>
+        <v>0.601</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-19 04:12:08</t>
+          <t>2025-06-19 04:33:51</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-1.93801943</v>
+        <v>-0.0225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-19 04:23:52</t>
+          <t>2025-06-19 04:33:51</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -592,23 +592,23 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6039</v>
+        <v>0.601</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-19 04:23:52</t>
+          <t>2025-06-19 04:33:51</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.00195941</v>
+        <v>-0.0225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-19 04:23:52</t>
+          <t>2025-06-19 04:33:51</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -622,17 +622,17 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6039</v>
+        <v>0.601</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-19 04:23:52</t>
+          <t>2025-06-19 04:33:51</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.79474058</v>
+        <v>-0.9975000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.601</v>
+        <v>0.6009</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.0225</v>
+        <v>-0.8632</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.601</v>
+        <v>0.6009</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-0.0225</v>
+        <v>-0.429</v>
       </c>
     </row>
     <row r="9">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.601</v>
+        <v>0.6009</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-0.9975000000000001</v>
+        <v>-0.4264</v>
       </c>
     </row>
     <row r="10">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-0.8632</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.429</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="12">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-0.4264</v>
+        <v>-5.1454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-19 04:33:51</t>
+          <t>2025-06-19 04:38:24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -832,23 +832,23 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6009</v>
+        <v>0.6239</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-19 04:33:51</t>
+          <t>2025-06-19 04:38:24</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-2.6</v>
+        <v>93.1114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-06-19 04:33:51</t>
+          <t>2025-06-19 05:34:36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -862,23 +862,23 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6009</v>
+        <v>0.6047</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-19 04:33:51</t>
+          <t>2025-06-19 05:34:36</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-0.0234</v>
+        <v>0.9768</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-06-19 04:33:51</t>
+          <t>2025-06-19 05:34:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -892,23 +892,23 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6009</v>
+        <v>0.6047</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-19 04:33:51</t>
+          <t>2025-06-19 05:34:36</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-5.1454</v>
+        <v>0.1188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-06-19 04:38:24</t>
+          <t>2025-06-19 05:34:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -922,23 +922,23 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6239</v>
+        <v>0.6047</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-19 04:38:24</t>
+          <t>2025-06-19 05:34:36</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>93.1114</v>
+        <v>16.7948</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-06-19 05:34:36</t>
+          <t>2025-06-19 06:34:37</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -952,23 +952,23 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.6047</v>
+        <v>0.6</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-19 05:34:36</t>
+          <t>2025-06-19 06:34:37</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.9768</v>
+        <v>-20.6927</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-06-19 05:34:36</t>
+          <t>2025-06-19 06:37:56</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -982,23 +982,23 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6047</v>
+        <v>0.6</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-19 05:34:36</t>
+          <t>2025-06-19 06:37:56</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1188</v>
+        <v>-3.82949999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-06-19 05:34:36</t>
+          <t>2025-06-19 06:45:47</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1012,23 +1012,23 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6047</v>
+        <v>0.6</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-19 05:34:36</t>
+          <t>2025-06-19 06:45:47</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>16.7948</v>
+        <v>-17.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-06-19 06:34:37</t>
+          <t>2025-06-19 06:47:31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1048,17 +1048,17 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-19 06:34:37</t>
+          <t>2025-06-19 06:47:31</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-20.6927</v>
+        <v>-9.9369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-19 06:37:56</t>
+          <t>2025-06-19 06:52:24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1078,82 +1078,82 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-19 06:37:56</t>
+          <t>2025-06-19 06:52:24</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-3.82949999</v>
+        <v>-9.350300000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-19 06:45:47</t>
+          <t>2025-06-19 07:30:41</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.6</v>
+        <v>649.39</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-19 06:45:47</t>
+          <t>2025-06-19 07:30:41</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-17.02</v>
+        <v>-11.5752</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-06-19 06:47:31</t>
+          <t>2025-06-19 07:47:58</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>BTCUSDT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6</v>
+        <v>104691.7</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-19 06:47:31</t>
+          <t>2025-06-19 07:47:58</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-9.9369</v>
+        <v>4.6656</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-06-19 06:52:24</t>
+          <t>2025-06-19 07:48:02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1162,28 +1162,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.6</v>
+        <v>145.17</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-19 06:52:24</t>
+          <t>2025-06-19 07:48:02</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-9.350300000000001</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-06-19 07:30:41</t>
+          <t>2025-06-19 07:48:06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1192,83 +1192,83 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>649.39</v>
+        <v>0.6024</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-19 07:30:41</t>
+          <t>2025-06-19 07:48:06</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-11.5752</v>
+        <v>18.4731</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-06-19 07:47:58</t>
+          <t>2025-06-19 07:48:08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BTCUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>104691.7</v>
+        <v>2521.56</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-19 07:47:58</t>
+          <t>2025-06-19 07:48:08</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.6656</v>
+        <v>35.54219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-06-19 07:48:02</t>
+          <t>2025-06-19 07:48:11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>145.17</v>
+        <v>644.8</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-19 07:48:02</t>
+          <t>2025-06-19 07:48:11</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>22.1</v>
+        <v>-0.891</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-06-19 07:48:06</t>
+          <t>2025-06-19 07:48:14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1278,32 +1278,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.6024</v>
+        <v>0.6</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-19 07:48:06</t>
+          <t>2025-06-19 07:48:14</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>18.4731</v>
+        <v>-212.75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-06-19 07:48:08</t>
+          <t>2025-06-19 09:10:57</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1312,53 +1312,53 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2521.56</v>
+        <v>0.6</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-19 07:48:08</t>
+          <t>2025-06-19 09:10:57</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>35.54219</v>
+        <v>-10.87682499</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-06-19 07:48:11</t>
+          <t>2025-06-19 09:10:57</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>644.8</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-19 07:48:11</t>
+          <t>2025-06-19 09:10:57</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-0.891</v>
+        <v>-10.87682499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-06-19 07:48:14</t>
+          <t>2025-06-19 09:10:57</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1378,17 +1378,17 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-19 07:48:14</t>
+          <t>2025-06-19 09:10:57</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-212.75</v>
+        <v>-10.87682499</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-06-19 09:10:57</t>
+          <t>2025-06-19 09:17:45</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1408,17 +1408,17 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-19 09:10:57</t>
+          <t>2025-06-19 09:17:45</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-10.87682499</v>
+        <v>-17.64405624</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-06-19 09:10:57</t>
+          <t>2025-06-19 09:17:45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1438,17 +1438,17 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-19 09:10:57</t>
+          <t>2025-06-19 09:17:45</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-10.87682499</v>
+        <v>-17.64405624</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-06-19 09:10:57</t>
+          <t>2025-06-19 09:17:45</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1468,22 +1468,22 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-19 09:10:57</t>
+          <t>2025-06-19 09:17:45</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-10.87682499</v>
+        <v>-17.64405624</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-06-19 09:17:45</t>
+          <t>2025-06-19 09:20:37</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>2527.67</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-19 09:17:45</t>
+          <t>2025-06-19 09:20:37</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-17.64405624</v>
+        <v>14.70017999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-06-19 09:17:45</t>
+          <t>2025-06-19 09:20:40</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1522,107 +1522,107 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.6</v>
+        <v>145.56</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-19 09:17:45</t>
+          <t>2025-06-19 09:20:40</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-17.64405624</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-06-19 09:17:45</t>
+          <t>2025-06-19 09:20:49</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.6</v>
+        <v>644.63</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-19 09:17:45</t>
+          <t>2025-06-19 09:20:49</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-17.64405624</v>
+        <v>-5.22302088</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-06-19 09:20:37</t>
+          <t>2025-06-19 09:20:49</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2527.67</v>
+        <v>644.65</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-19 09:20:37</t>
+          <t>2025-06-19 09:20:49</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>14.70017999</v>
+        <v>-2.07055859</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-06-19 09:20:40</t>
+          <t>2025-06-19 09:20:49</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>145.56</v>
+        <v>644.6900000000001</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-19 09:20:40</t>
+          <t>2025-06-19 09:20:49</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>30.6</v>
+        <v>-2.91992051</v>
       </c>
     </row>
     <row r="40">
@@ -1633,16 +1633,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>644.63</v>
+        <v>0.6</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>-5.22302088</v>
+        <v>-18.02515624</v>
       </c>
     </row>
     <row r="41">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>BTCUSDT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>644.65</v>
+        <v>104895.5</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
@@ -1682,43 +1682,43 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-2.07055859</v>
+        <v>-21.85479999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-06-19 09:20:49</t>
+          <t>2025-06-19 09:37:53</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>644.6900000000001</v>
+        <v>0.6011</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-19 09:20:49</t>
+          <t>2025-06-19 09:37:53</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-2.91992051</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-19 09:20:49</t>
+          <t>2025-06-19 09:37:53</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1732,53 +1732,53 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6</v>
+        <v>0.601</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-19 09:20:49</t>
+          <t>2025-06-19 09:37:53</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-18.02515624</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-19 09:20:49</t>
+          <t>2025-06-19 09:37:53</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BTCUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>104895.5</v>
+        <v>0.601</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-19 09:20:49</t>
+          <t>2025-06-19 09:37:53</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-21.85479999</v>
+        <v>0.3323</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-06-19 09:37:53</t>
+          <t>2025-06-19 09:43:01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1792,28 +1792,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.6011</v>
+        <v>0.61</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-19 09:37:53</t>
+          <t>2025-06-19 09:43:01</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.0034</v>
+        <v>31.2034</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-06-19 09:37:53</t>
+          <t>2025-06-19 11:41:18</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1822,28 +1822,28 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.601</v>
+        <v>144.8</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-19 09:37:53</t>
+          <t>2025-06-19 11:41:18</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.0166</v>
+        <v>-12.32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-06-19 09:37:53</t>
+          <t>2025-06-19 12:07:28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1852,28 +1852,28 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.601</v>
+        <v>144.47</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-19 09:37:53</t>
+          <t>2025-06-19 12:07:28</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.3323</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-06-19 09:43:01</t>
+          <t>2025-06-19 12:07:28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1882,23 +1882,23 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.61</v>
+        <v>144.46</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-19 09:43:01</t>
+          <t>2025-06-19 12:07:28</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>31.2034</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-06-19 11:41:18</t>
+          <t>2025-06-19 13:48:57</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1912,28 +1912,28 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>144.8</v>
+        <v>143.97</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-19 11:41:18</t>
+          <t>2025-06-19 13:48:57</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-12.32</v>
+        <v>-11.48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-06-19 12:07:28</t>
+          <t>2025-06-19 13:51:59</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1942,77 +1942,77 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>144.47</v>
+        <v>2508</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-19 12:07:28</t>
+          <t>2025-06-19 13:51:59</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-0.41</v>
+        <v>-11.83716</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-06-19 12:07:28</t>
+          <t>2025-06-19 13:51:59</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>144.46</v>
+        <v>640.92</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-19 12:07:28</t>
+          <t>2025-06-19 13:51:59</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>-5.46</v>
+        <v>1.51498905</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-06-19 13:48:57</t>
+          <t>2025-06-19 13:51:59</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>143.97</v>
+        <v>640.92</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-19 13:48:57</t>
+          <t>2025-06-19 13:51:59</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-11.48</v>
+        <v>0.73585182</v>
       </c>
     </row>
     <row r="53">
@@ -2023,16 +2023,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2508</v>
+        <v>640.92</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-11.83716</v>
+        <v>9.609359120000001</v>
       </c>
     </row>
     <row r="54">
@@ -2053,16 +2053,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>640.92</v>
+        <v>0.606</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1.51498905</v>
+        <v>-154.264</v>
       </c>
     </row>
     <row r="55">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>BTCUSDT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>640.92</v>
+        <v>104242.9</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
@@ -2102,48 +2102,48 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0.73585182</v>
+        <v>10.9361</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-06-19 13:51:59</t>
+          <t>2025-06-20 16:22:40</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>640.92</v>
+        <v>135</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-19 13:51:59</t>
+          <t>2025-06-20 16:22:40</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>9.609359120000001</v>
+        <v>-106.99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-06-19 13:51:59</t>
+          <t>2025-06-20 17:06:01</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2152,53 +2152,53 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.606</v>
+        <v>141.74</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-19 13:51:59</t>
+          <t>2025-06-20 17:06:01</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-154.264</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-06-19 13:51:59</t>
+          <t>2025-06-20 17:06:01</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BTCUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>LONG</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>104242.9</v>
+        <v>141.63</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-19 13:51:59</t>
+          <t>2025-06-20 17:06:01</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>10.9361</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-06-20 16:22:40</t>
+          <t>2025-06-20 17:15:09</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2212,23 +2212,23 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>135</v>
+        <v>141.06</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-20 16:22:40</t>
+          <t>2025-06-20 17:15:09</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-106.99</v>
+        <v>-9.48</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-06-20 17:06:01</t>
+          <t>2025-06-20 17:19:03</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2242,23 +2242,23 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>141.74</v>
+        <v>140.94</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-20 17:06:01</t>
+          <t>2025-06-20 17:19:03</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-0.28</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-06-20 17:06:01</t>
+          <t>2025-06-20 17:59:51</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2272,28 +2272,28 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>141.63</v>
+        <v>138.4</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-20 17:06:01</t>
+          <t>2025-06-20 17:59:51</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-4.68</v>
+        <v>-17.52</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-06-20 17:15:09</t>
+          <t>2025-06-20 17:59:51</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2302,28 +2302,28 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>141.06</v>
+        <v>0.6</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-20 17:15:09</t>
+          <t>2025-06-20 17:59:51</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>-9.48</v>
+        <v>-82.5433</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-06-20 17:19:03</t>
+          <t>2025-06-20 18:06:50</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2332,28 +2332,28 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>140.94</v>
+        <v>0.6</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-20 17:19:03</t>
+          <t>2025-06-20 18:06:50</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-4.8</v>
+        <v>-80.09999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-06-20 17:59:51</t>
+          <t>2025-06-20 18:08:01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2362,28 +2362,28 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>138.4</v>
+        <v>0.6</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-20 17:59:51</t>
+          <t>2025-06-20 18:08:01</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>-17.52</v>
+        <v>-80.09999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-06-20 17:59:51</t>
+          <t>2025-06-20 18:08:17</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2392,23 +2392,23 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.6</v>
+        <v>138.5</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-20 17:59:51</t>
+          <t>2025-06-20 18:08:17</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>-82.5433</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-06-20 18:06:50</t>
+          <t>2025-06-20 18:09:17</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2428,7 +2428,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-20 18:06:50</t>
+          <t>2025-06-20 18:09:17</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2438,7 +2438,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-06-20 18:08:01</t>
+          <t>2025-06-20 18:12:44</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2458,7 +2458,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-20 18:08:01</t>
+          <t>2025-06-20 18:12:44</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2468,12 +2468,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-06-20 18:08:17</t>
+          <t>2025-06-20 18:13:11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2482,23 +2482,23 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>138.5</v>
+        <v>0.6</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-20 18:08:17</t>
+          <t>2025-06-20 18:13:11</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3.19</v>
+        <v>-160.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-06-20 18:09:17</t>
+          <t>2025-06-20 18:14:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2518,7 +2518,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-20 18:09:17</t>
+          <t>2025-06-20 18:14:00</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2528,7 +2528,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-06-20 18:12:44</t>
+          <t>2025-06-20 18:16:19</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2548,7 +2548,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-20 18:12:44</t>
+          <t>2025-06-20 18:16:19</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2558,7 +2558,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-06-20 18:13:11</t>
+          <t>2025-06-20 18:18:40</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2578,17 +2578,17 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-20 18:13:11</t>
+          <t>2025-06-20 18:18:40</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-160.2</v>
+        <v>-79.83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-06-20 18:14:00</t>
+          <t>2025-06-20 18:25:22</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2608,22 +2608,22 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-20 18:14:00</t>
+          <t>2025-06-20 18:25:22</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-80.09999999999999</v>
+        <v>-259.524</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-06-20 18:16:19</t>
+          <t>2025-06-20 18:25:25</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2632,23 +2632,23 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.6</v>
+        <v>138.45</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-20 18:16:19</t>
+          <t>2025-06-20 18:25:25</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>-80.09999999999999</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-06-20 18:18:40</t>
+          <t>2025-06-20 18:26:55</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2668,17 +2668,17 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-06-20 18:18:40</t>
+          <t>2025-06-20 18:26:55</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>-79.83</v>
+        <v>-21.15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-06-20 18:25:22</t>
+          <t>2025-06-20 18:27:12</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2698,22 +2698,22 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-06-20 18:25:22</t>
+          <t>2025-06-20 18:27:12</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-259.524</v>
+        <v>-21.15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-06-20 18:25:25</t>
+          <t>2025-06-20 18:29:19</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2722,28 +2722,28 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>138.45</v>
+        <v>0.6</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-06-20 18:25:25</t>
+          <t>2025-06-20 18:29:19</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>-1.76</v>
+        <v>-5.8515</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-06-20 18:26:55</t>
+          <t>2025-06-20 18:29:21</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2752,23 +2752,23 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.6</v>
+        <v>138.51</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-06-20 18:26:55</t>
+          <t>2025-06-20 18:29:21</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>-21.15</v>
+        <v>-0.20999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-06-20 18:27:12</t>
+          <t>2025-06-20 19:16:24</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2788,17 +2788,17 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-06-20 18:27:12</t>
+          <t>2025-06-20 19:16:24</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>-21.15</v>
+        <v>-18.21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-06-20 18:29:19</t>
+          <t>2025-06-20 19:16:39</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2818,22 +2818,22 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-06-20 18:29:19</t>
+          <t>2025-06-20 19:16:39</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>-5.8515</v>
+        <v>-18.21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-06-20 18:29:21</t>
+          <t>2025-06-20 19:16:55</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2842,23 +2842,23 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>138.51</v>
+        <v>0.6</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-06-20 18:29:21</t>
+          <t>2025-06-20 19:16:55</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>-0.20999999</v>
+        <v>-18.21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-06-20 19:16:24</t>
+          <t>2025-06-20 19:17:13</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2878,7 +2878,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-06-20 19:16:24</t>
+          <t>2025-06-20 19:17:13</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -2888,7 +2888,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-06-20 19:16:39</t>
+          <t>2025-06-20 19:17:36</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2908,7 +2908,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-06-20 19:16:39</t>
+          <t>2025-06-20 19:17:36</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -2918,7 +2918,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-06-20 19:16:55</t>
+          <t>2025-06-20 19:17:47</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2938,7 +2938,7 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-06-20 19:16:55</t>
+          <t>2025-06-20 19:17:47</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -2948,12 +2948,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-06-20 19:17:13</t>
+          <t>2025-06-20 19:32:41</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2962,23 +2962,23 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.6</v>
+        <v>139.17</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-06-20 19:17:13</t>
+          <t>2025-06-20 19:32:41</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>-18.21</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-06-20 19:17:36</t>
+          <t>2025-06-20 19:32:48</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2998,17 +2998,17 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-06-20 19:17:36</t>
+          <t>2025-06-20 19:32:48</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>-18.21</v>
+        <v>-40.12269999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-06-20 19:17:47</t>
+          <t>2025-06-20 19:33:32</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3028,7 +3028,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-06-20 19:17:47</t>
+          <t>2025-06-20 19:33:32</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3038,12 +3038,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-06-20 19:32:41</t>
+          <t>2025-06-20 19:33:56</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3052,28 +3052,28 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>139.17</v>
+        <v>0.6</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-06-20 19:32:41</t>
+          <t>2025-06-20 19:33:56</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>2.61</v>
+        <v>-15.54</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-06-20 19:32:48</t>
+          <t>2025-06-20 19:33:58</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3082,23 +3082,23 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.6</v>
+        <v>139.15</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-06-20 19:32:48</t>
+          <t>2025-06-20 19:33:58</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>-40.12269999</v>
+        <v>-0.20999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-06-20 19:33:32</t>
+          <t>2025-06-20 19:38:42</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3118,17 +3118,17 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-06-20 19:33:32</t>
+          <t>2025-06-20 19:38:42</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>-18.21</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-06-20 19:33:56</t>
+          <t>2025-06-20 19:38:59</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3148,22 +3148,22 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-06-20 19:33:56</t>
+          <t>2025-06-20 19:38:59</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>-15.54</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-06-20 19:33:58</t>
+          <t>2025-06-20 19:39:41</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3172,23 +3172,23 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>139.15</v>
+        <v>0.6</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-06-20 19:33:58</t>
+          <t>2025-06-20 19:39:41</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>-0.20999999</v>
+        <v>-0.6318</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-06-20 19:38:42</t>
+          <t>2025-06-20 19:40:05</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3208,7 +3208,7 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-06-20 19:38:42</t>
+          <t>2025-06-20 19:40:05</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3218,12 +3218,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-06-20 19:38:59</t>
+          <t>2025-06-20 20:11:42</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3232,23 +3232,23 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.6</v>
+        <v>140.28</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-06-20 19:38:59</t>
+          <t>2025-06-20 20:11:42</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>-7.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-06-20 19:39:41</t>
+          <t>2025-06-20 20:11:46</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3268,17 +3268,17 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-06-20 19:39:41</t>
+          <t>2025-06-20 20:11:46</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>-0.6318</v>
+        <v>-2.4543</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-06-20 19:40:05</t>
+          <t>2025-06-20 20:13:33</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3298,22 +3298,22 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-06-20 19:40:05</t>
+          <t>2025-06-20 20:13:33</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>-7.29</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-06-20 20:11:42</t>
+          <t>2025-06-20 20:13:58</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3322,23 +3322,23 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>140.28</v>
+        <v>0.6</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-06-20 20:11:42</t>
+          <t>2025-06-20 20:13:58</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1.25</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-06-20 20:11:46</t>
+          <t>2025-06-20 20:14:29</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3358,17 +3358,17 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-06-20 20:11:46</t>
+          <t>2025-06-20 20:14:29</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>-2.4543</v>
+        <v>-4.80533333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-06-20 20:13:33</t>
+          <t>2025-06-20 20:14:45</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3388,17 +3388,17 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-06-20 20:13:33</t>
+          <t>2025-06-20 20:14:45</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>-4.89</v>
+        <v>-4.83355555</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-06-20 20:13:58</t>
+          <t>2025-06-20 20:15:02</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3418,17 +3418,17 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-06-20 20:13:58</t>
+          <t>2025-06-20 20:15:02</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>-4.89</v>
+        <v>-4.79952777</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-06-20 20:14:29</t>
+          <t>2025-06-20 20:15:20</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3448,22 +3448,22 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-06-20 20:14:29</t>
+          <t>2025-06-20 20:15:20</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>-4.80533333</v>
+        <v>-4.82214583</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-06-20 20:14:45</t>
+          <t>2025-06-20 21:52:35</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3472,23 +3472,23 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.6</v>
+        <v>139.97</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-06-20 20:14:45</t>
+          <t>2025-06-20 21:52:35</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>-4.83355555</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-06-20 20:15:02</t>
+          <t>2025-06-20 23:47:28</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3508,17 +3508,17 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-06-20 20:15:02</t>
+          <t>2025-06-20 23:47:28</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>-4.79952777</v>
+        <v>-3.86110937</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-06-20 20:15:20</t>
+          <t>2025-06-20 23:48:13</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3538,22 +3538,22 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-06-20 20:15:20</t>
+          <t>2025-06-20 23:48:13</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>-4.82214583</v>
+        <v>-2.89333086</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-06-20 21:52:35</t>
+          <t>2025-06-20 23:48:30</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3562,23 +3562,23 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>139.97</v>
+        <v>0.6</v>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-06-20 21:52:35</t>
+          <t>2025-06-20 23:48:30</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-3.00181481</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-06-20 23:47:28</t>
+          <t>2025-06-21 00:14:05</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3592,23 +3592,23 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.6</v>
+        <v>0.632</v>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-06-20 23:47:28</t>
+          <t>2025-06-21 00:14:05</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>-3.86110937</v>
+        <v>0.34070894</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-06-20 23:48:13</t>
+          <t>2025-06-21 00:14:05</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3628,17 +3628,17 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-06-20 23:48:13</t>
+          <t>2025-06-21 00:14:05</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>-2.89333086</v>
+        <v>-1.7321654</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-06-20 23:48:30</t>
+          <t>2025-06-21 00:24:06</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3658,17 +3658,17 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-06-20 23:48:30</t>
+          <t>2025-06-21 00:24:06</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>-3.00181481</v>
+        <v>-1.94942237</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-06-21 00:14:05</t>
+          <t>2025-06-21 01:14:45</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3682,23 +3682,23 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.632</v>
+        <v>0.6</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-06-21 00:14:05</t>
+          <t>2025-06-21 01:14:45</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.34070894</v>
+        <v>-1.73990344</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-06-21 00:14:05</t>
+          <t>2025-06-21 01:15:00</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3718,17 +3718,17 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-06-21 00:14:05</t>
+          <t>2025-06-21 01:15:00</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>-1.7321654</v>
+        <v>-1.95471931</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-06-21 00:24:06</t>
+          <t>2025-06-21 01:16:23</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3742,23 +3742,23 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.6</v>
+        <v>0.6051</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-06-21 00:24:06</t>
+          <t>2025-06-21 01:16:23</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>-1.94942237</v>
+        <v>-1.29323912</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-06-21 01:14:45</t>
+          <t>2025-06-21 01:27:30</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3778,17 +3778,17 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-06-21 01:14:45</t>
+          <t>2025-06-21 01:27:30</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>-1.73990344</v>
+        <v>-1.57448263</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-06-21 01:15:00</t>
+          <t>2025-06-21 01:27:49</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3808,17 +3808,17 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-06-21 01:15:00</t>
+          <t>2025-06-21 01:27:49</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>-1.95471931</v>
+        <v>-2.14636304</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-06-21 01:16:23</t>
+          <t>2025-06-21 01:28:23</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3832,23 +3832,23 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.6051</v>
+        <v>0.6</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-06-21 01:16:23</t>
+          <t>2025-06-21 01:28:23</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>-1.29323912</v>
+        <v>-2.29835962</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-06-21 01:27:30</t>
+          <t>2025-06-21 01:28:40</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3868,17 +3868,17 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-06-21 01:27:30</t>
+          <t>2025-06-21 01:28:40</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>-1.57448263</v>
+        <v>-2.08400217</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-06-21 01:27:49</t>
+          <t>2025-06-21 01:28:56</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3898,17 +3898,17 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-06-21 01:27:49</t>
+          <t>2025-06-21 01:28:56</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>-2.14636304</v>
+        <v>-2.29656496</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-06-21 01:28:23</t>
+          <t>2025-06-21 01:46:37</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3928,17 +3928,17 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-06-21 01:28:23</t>
+          <t>2025-06-21 01:46:37</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>-2.29835962</v>
+        <v>-2.17731289</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-06-21 01:28:40</t>
+          <t>2025-06-21 01:54:02</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3958,17 +3958,17 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-06-21 01:28:40</t>
+          <t>2025-06-21 01:54:02</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>-2.08400217</v>
+        <v>-1.87144194</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-06-21 01:28:56</t>
+          <t>2025-06-21 02:30:25</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3988,17 +3988,17 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-06-21 01:28:56</t>
+          <t>2025-06-21 02:30:25</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>-2.29656496</v>
+        <v>-1.60577522</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-06-21 01:46:37</t>
+          <t>2025-06-21 02:30:52</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4018,17 +4018,17 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-06-21 01:46:37</t>
+          <t>2025-06-21 02:30:52</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>-2.17731289</v>
+        <v>-1.12969127</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-06-21 01:54:02</t>
+          <t>2025-06-21 02:34:06</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4048,17 +4048,17 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-06-21 01:54:02</t>
+          <t>2025-06-21 02:34:06</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>-1.87144194</v>
+        <v>-1.08105348</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-06-21 02:30:25</t>
+          <t>2025-06-21 02:35:18</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4078,17 +4078,17 @@
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-06-21 02:30:25</t>
+          <t>2025-06-21 02:35:18</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>-1.60577522</v>
+        <v>-1.12342905</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-06-21 02:30:52</t>
+          <t>2025-06-21 02:46:00</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4108,17 +4108,17 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-06-21 02:30:52</t>
+          <t>2025-06-21 02:46:00</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>-1.12969127</v>
+        <v>-1.10894144</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-06-21 02:34:06</t>
+          <t>2025-06-21 02:46:41</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4138,17 +4138,17 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-06-21 02:34:06</t>
+          <t>2025-06-21 02:46:41</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>-1.08105348</v>
+        <v>-1.15792082</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-06-21 02:35:18</t>
+          <t>2025-06-21 02:57:19</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4168,17 +4168,17 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-06-21 02:35:18</t>
+          <t>2025-06-21 02:57:19</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>-1.12342905</v>
+        <v>-1.03006172</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-06-21 02:46:00</t>
+          <t>2025-06-21 02:57:46</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4198,17 +4198,17 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-06-21 02:46:00</t>
+          <t>2025-06-21 02:57:46</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>-1.10894144</v>
+        <v>-1.17031815</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-06-21 02:46:41</t>
+          <t>2025-06-21 02:57:59</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4228,17 +4228,17 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-06-21 02:46:41</t>
+          <t>2025-06-21 02:57:59</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>-1.15792082</v>
+        <v>-1.22531272</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-06-21 02:57:19</t>
+          <t>2025-06-21 09:48:14</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4252,23 +4252,23 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.6</v>
+        <v>0.5928</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-06-21 02:57:19</t>
+          <t>2025-06-21 09:48:14</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>-1.03006172</v>
+        <v>-1.603252</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-06-21 02:57:46</t>
+          <t>2025-06-21 10:00:13</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4282,23 +4282,23 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-06-21 02:57:46</t>
+          <t>2025-06-21 10:00:13</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>-1.17031815</v>
+        <v>-1.09162273</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-06-21 02:57:59</t>
+          <t>2025-06-21 10:01:35</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4312,23 +4312,23 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-06-21 02:57:59</t>
+          <t>2025-06-21 10:01:35</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>-1.22531272</v>
+        <v>-1.02809205</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-06-21 09:48:14</t>
+          <t>2025-06-21 10:05:38</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4342,23 +4342,23 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.5928</v>
+        <v>0.59</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-06-21 09:48:14</t>
+          <t>2025-06-21 10:05:38</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>-1.603252</v>
+        <v>-0.95666783</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-06-21 10:00:13</t>
+          <t>2025-06-21 10:09:56</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4378,17 +4378,17 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-06-21 10:00:13</t>
+          <t>2025-06-21 10:09:56</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>-1.09162273</v>
+        <v>-0.91626621</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-06-21 10:01:35</t>
+          <t>2025-06-21 10:10:52</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4408,17 +4408,17 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-06-21 10:01:35</t>
+          <t>2025-06-21 10:10:52</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>-1.02809205</v>
+        <v>-0.8780329100000001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-06-21 10:05:38</t>
+          <t>2025-06-21 10:12:10</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4432,23 +4432,23 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.59</v>
+        <v>0.5928</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-06-21 10:05:38</t>
+          <t>2025-06-21 10:12:10</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>-0.95666783</v>
+        <v>-0.73902888</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-06-21 10:09:56</t>
+          <t>2025-06-21 10:12:31</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4462,23 +4462,23 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.59</v>
+        <v>0.6005</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-06-21 10:09:56</t>
+          <t>2025-06-21 10:12:31</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>-0.91626621</v>
+        <v>-0.41805914</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-06-21 10:10:52</t>
+          <t>2025-06-21 12:33:33</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4492,23 +4492,23 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.59</v>
+        <v>0.6066</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-06-21 10:10:52</t>
+          <t>2025-06-21 12:33:33</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>-0.8780329100000001</v>
+        <v>-3.27288876</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-06-21 10:12:10</t>
+          <t>2025-06-23 13:44:05</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4522,28 +4522,28 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.5928</v>
+        <v>0.59</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-06-21 10:12:10</t>
+          <t>2025-06-23 13:44:05</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>-0.73902888</v>
+        <v>-0.098</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-06-21 10:12:31</t>
+          <t>2025-06-23 14:00:08</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4552,28 +4552,28 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.6005</v>
+        <v>2.0307</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-06-21 10:12:31</t>
+          <t>2025-06-23 14:00:08</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>-0.41805914</v>
+        <v>0.04212</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-06-21 12:33:33</t>
+          <t>2025-06-23 14:00:08</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4582,28 +4582,28 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.6066</v>
+        <v>2.0305</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-06-21 12:33:33</t>
+          <t>2025-06-23 14:00:08</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>-3.27288876</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-06-23 13:44:05</t>
+          <t>2025-06-23 14:07:30</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4612,23 +4612,23 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.59</v>
+        <v>2.05</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-06-23 13:44:05</t>
+          <t>2025-06-23 14:07:30</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>-0.098</v>
+        <v>7.08402</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-06-23 14:00:08</t>
+          <t>2025-06-23 14:10:21</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4642,23 +4642,23 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2.0307</v>
+        <v>2.05</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-06-23 14:00:08</t>
+          <t>2025-06-23 14:10:21</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>0.04212</v>
+        <v>-4.2984</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-06-23 14:00:08</t>
+          <t>2025-06-23 14:17:40</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4672,23 +4672,23 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2.0305</v>
+        <v>2.0195</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-06-23 14:00:08</t>
+          <t>2025-06-23 14:17:40</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>7.6</v>
+        <v>-15.1191</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-06-23 14:07:30</t>
+          <t>2025-06-23 14:22:35</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4702,23 +4702,23 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2.05</v>
+        <v>2.0173</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-06-23 14:07:30</t>
+          <t>2025-06-23 14:22:35</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>7.08402</v>
+        <v>-1.4445</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-06-23 14:10:21</t>
+          <t>2025-06-23 15:20:21</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4732,28 +4732,28 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2.05</v>
+        <v>2.0234</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-06-23 14:10:21</t>
+          <t>2025-06-23 15:20:21</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>-4.2984</v>
+        <v>2.98559</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-06-23 14:17:40</t>
+          <t>2025-06-23 15:28:02</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4762,23 +4762,23 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2.0195</v>
+        <v>2268.1</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-06-23 14:17:40</t>
+          <t>2025-06-23 15:28:02</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>-15.1191</v>
+        <v>-12.84216</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-06-23 14:22:35</t>
+          <t>2025-06-23 15:56:26</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4792,28 +4792,28 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2.0173</v>
+        <v>1.9994</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-06-23 14:22:35</t>
+          <t>2025-06-23 15:56:26</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>-1.4445</v>
+        <v>-5.86911</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-06-23 15:20:21</t>
+          <t>2025-06-23 19:30:49</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4822,23 +4822,23 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2.0234</v>
+        <v>2298.92</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-06-23 15:20:21</t>
+          <t>2025-06-23 19:30:49</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>2.98559</v>
+        <v>0.13115</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-06-23 15:28:02</t>
+          <t>2025-06-23 19:30:49</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4852,28 +4852,28 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2268.1</v>
+        <v>2298.92</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-06-23 15:28:02</t>
+          <t>2025-06-23 19:30:49</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>-12.84216</v>
+        <v>9.12804</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-06-23 15:56:26</t>
+          <t>2025-06-23 19:30:49</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4882,28 +4882,28 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1.9994</v>
+        <v>2298.91</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-06-23 15:56:26</t>
+          <t>2025-06-23 19:30:49</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>-5.86911</v>
+        <v>2.0976</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-06-23 19:30:49</t>
+          <t>2025-06-24 07:22:19</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4912,28 +4912,28 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2298.92</v>
+        <v>2.2002</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-06-23 19:30:49</t>
+          <t>2025-06-24 07:22:19</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.13115</v>
+        <v>0.02254</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-06-23 19:30:49</t>
+          <t>2025-06-24 07:22:19</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4942,28 +4942,28 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2298.92</v>
+        <v>2.2002</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-06-23 19:30:49</t>
+          <t>2025-06-24 07:22:19</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>9.12804</v>
+        <v>0.02254</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-06-23 19:30:49</t>
+          <t>2025-06-24 07:22:19</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4972,17 +4972,17 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2298.91</v>
+        <v>2.2002</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-06-23 19:30:49</t>
+          <t>2025-06-24 07:22:19</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>2.0976</v>
+        <v>0.4459</v>
       </c>
     </row>
     <row r="152">
@@ -5012,18 +5012,18 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.02254</v>
+        <v>3.9004</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-06-24 07:22:19</t>
+          <t>2025-06-24 07:45:35</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5032,28 +5032,28 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2.2002</v>
+        <v>144.81</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-06-24 07:22:19</t>
+          <t>2025-06-24 07:45:35</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.02254</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-06-24 07:22:19</t>
+          <t>2025-06-24 07:45:35</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5062,28 +5062,28 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2.2002</v>
+        <v>144.81</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-06-24 07:22:19</t>
+          <t>2025-06-24 07:45:35</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.4459</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-06-24 07:22:19</t>
+          <t>2025-06-24 07:45:35</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5092,28 +5092,28 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2.2002</v>
+        <v>144.81</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025-06-24 07:22:19</t>
+          <t>2025-06-24 07:45:35</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>3.9004</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-06-24 07:45:35</t>
+          <t>2025-06-24 07:53:02</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5122,28 +5122,28 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>144.81</v>
+        <v>2.1796</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025-06-24 07:45:35</t>
+          <t>2025-06-24 07:53:02</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>-5.68</v>
+        <v>-1.84869</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-06-24 07:45:35</t>
+          <t>2025-06-24 08:07:08</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5152,28 +5152,28 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>144.81</v>
+        <v>2.1728</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025-06-24 07:45:35</t>
+          <t>2025-06-24 08:07:08</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>-2.84</v>
+        <v>-0.009599999999999999</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-06-24 07:45:35</t>
+          <t>2025-06-24 08:07:08</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5182,23 +5182,23 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>144.81</v>
+        <v>2.1727</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025-06-24 07:45:35</t>
+          <t>2025-06-24 08:07:08</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>-1.42</v>
+        <v>-0.44772</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-06-24 07:53:02</t>
+          <t>2025-06-24 08:07:08</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5212,17 +5212,17 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2.1796</v>
+        <v>2.1727</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025-06-24 07:53:02</t>
+          <t>2025-06-24 08:07:08</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>-1.84869</v>
+        <v>-0.1025</v>
       </c>
     </row>
     <row r="160">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2.1728</v>
+        <v>2.1727</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>-0.009599999999999999</v>
+        <v>-1.29437</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-06-24 08:07:08</t>
+          <t>2025-06-24 08:19:38</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5272,23 +5272,23 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2.1727</v>
+        <v>2.1611</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025-06-24 08:07:08</t>
+          <t>2025-06-24 08:19:38</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>-0.44772</v>
+        <v>-0.09024</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-06-24 08:07:08</t>
+          <t>2025-06-24 08:19:38</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5302,23 +5302,23 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2.1727</v>
+        <v>2.1611</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025-06-24 08:07:08</t>
+          <t>2025-06-24 08:19:38</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>-0.1025</v>
+        <v>-0.02256</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-06-24 08:07:08</t>
+          <t>2025-06-24 08:19:38</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5332,23 +5332,23 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2.1727</v>
+        <v>2.1611</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025-06-24 08:07:08</t>
+          <t>2025-06-24 08:19:38</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>-1.29437</v>
+        <v>-4.15198</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-06-24 08:19:38</t>
+          <t>2025-06-24 08:24:36</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5362,28 +5362,28 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2.1611</v>
+        <v>2.1758</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025-06-24 08:19:38</t>
+          <t>2025-06-24 08:24:36</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>-0.09024</v>
+        <v>2.86146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-06-24 08:19:38</t>
+          <t>2025-06-24 08:46:51</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5392,23 +5392,23 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2.1611</v>
+        <v>2401.22</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025-06-24 08:19:38</t>
+          <t>2025-06-24 08:46:51</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>-0.02256</v>
+        <v>4.62323</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-06-24 08:19:38</t>
+          <t>2025-06-24 08:57:53</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5422,23 +5422,23 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2.1611</v>
+        <v>2.1752</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025-06-24 08:19:38</t>
+          <t>2025-06-24 08:57:53</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>-4.15198</v>
+        <v>0.18116</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-06-24 08:24:36</t>
+          <t>2025-06-24 09:24:04</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5452,28 +5452,28 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2.1758</v>
+        <v>2.1894</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025-06-24 08:24:36</t>
+          <t>2025-06-24 09:24:04</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>2.86146</v>
+        <v>0.01242</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-06-24 08:46:51</t>
+          <t>2025-06-24 09:24:04</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5482,23 +5482,23 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2401.22</v>
+        <v>2.1894</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025-06-24 08:46:51</t>
+          <t>2025-06-24 09:24:04</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>4.62323</v>
+        <v>0.01242</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-06-24 08:57:53</t>
+          <t>2025-06-24 09:24:04</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5512,17 +5512,17 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2.1752</v>
+        <v>2.1894</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025-06-24 08:57:53</t>
+          <t>2025-06-24 09:24:04</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>0.18116</v>
+        <v>0.01242</v>
       </c>
     </row>
     <row r="170">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="H171" t="n">
-        <v>0.01242</v>
+        <v>0.00701999</v>
       </c>
     </row>
     <row r="172">
@@ -5612,13 +5612,13 @@
         </is>
       </c>
       <c r="H172" t="n">
-        <v>0.01242</v>
+        <v>0.73691999</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-06-24 09:24:04</t>
+          <t>2025-06-24 09:28:29</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5632,23 +5632,23 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2.1894</v>
+        <v>2.2023</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025-06-24 09:24:04</t>
+          <t>2025-06-24 09:28:29</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>0.01242</v>
+        <v>0.36244</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-06-24 09:24:04</t>
+          <t>2025-06-24 09:28:29</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5662,23 +5662,23 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2.1894</v>
+        <v>2.2021</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025-06-24 09:24:04</t>
+          <t>2025-06-24 09:28:29</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>0.00701999</v>
+        <v>1.36578</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-06-24 09:24:04</t>
+          <t>2025-06-24 10:02:06</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5692,23 +5692,23 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2.1894</v>
+        <v>2.1881</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025-06-24 09:24:04</t>
+          <t>2025-06-24 10:02:06</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>0.73691999</v>
+        <v>-1.48364</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-06-24 09:28:29</t>
+          <t>2025-06-24 10:02:06</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5722,23 +5722,23 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2.2023</v>
+        <v>2.1881</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025-06-24 09:28:29</t>
+          <t>2025-06-24 10:02:06</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>0.36244</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-06-24 09:28:29</t>
+          <t>2025-06-24 10:02:06</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5752,17 +5752,17 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2.2021</v>
+        <v>2.188</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025-06-24 09:28:29</t>
+          <t>2025-06-24 10:02:06</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>1.36578</v>
+        <v>-0.08892</v>
       </c>
     </row>
     <row r="178">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2.1881</v>
+        <v>2.188</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
@@ -5792,18 +5792,18 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>-1.48364</v>
+        <v>-1.20042</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-06-24 10:02:06</t>
+          <t>2025-06-24 10:32:15</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5812,28 +5812,28 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2.1881</v>
+        <v>143.3</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025-06-24 10:02:06</t>
+          <t>2025-06-24 10:32:15</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>-2.32</v>
+        <v>-9.17</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-06-24 10:02:06</t>
+          <t>2025-06-24 10:48:28</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5842,28 +5842,28 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2.188</v>
+        <v>2408.28</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025-06-24 10:02:06</t>
+          <t>2025-06-24 10:48:28</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>-0.08892</v>
+        <v>3.12756</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-06-24 10:02:06</t>
+          <t>2025-06-24 10:48:35</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5872,23 +5872,23 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2.188</v>
+        <v>143.73</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025-06-24 10:02:06</t>
+          <t>2025-06-24 10:48:35</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>-1.20042</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-06-24 10:32:15</t>
+          <t>2025-06-24 10:53:21</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5902,28 +5902,28 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>143.3</v>
+        <v>144.06</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2025-06-24 10:32:15</t>
+          <t>2025-06-24 10:53:21</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>-9.17</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-06-24 10:48:28</t>
+          <t>2025-06-24 12:45:07</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5932,28 +5932,28 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2408.28</v>
+        <v>2.174</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2025-06-24 10:48:28</t>
+          <t>2025-06-24 12:45:07</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>3.12756</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-06-24 10:48:35</t>
+          <t>2025-06-24 12:45:07</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5962,28 +5962,28 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>143.73</v>
+        <v>2.174</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2025-06-24 10:48:35</t>
+          <t>2025-06-24 12:45:07</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>2.1</v>
+        <v>-0.02352</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-06-24 10:53:21</t>
+          <t>2025-06-24 12:45:07</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5992,28 +5992,28 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>144.06</v>
+        <v>2.1737</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2025-06-24 10:53:21</t>
+          <t>2025-06-24 12:45:07</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>1.33</v>
+        <v>-0.40602</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-06-24 12:45:07</t>
+          <t>2025-06-24 14:35:48</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6022,28 +6022,28 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2.174</v>
+        <v>145.27</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2025-06-24 12:45:07</t>
+          <t>2025-06-24 14:35:48</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>-3.92</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-06-24 12:45:07</t>
+          <t>2025-06-24 15:18:26</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6052,23 +6052,23 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2.174</v>
+        <v>144.41</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2025-06-24 12:45:07</t>
+          <t>2025-06-24 15:18:26</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>-0.02352</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-06-24 12:45:07</t>
+          <t>2025-06-24 16:59:44</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6082,28 +6082,28 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2.1737</v>
+        <v>2.2061</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2025-06-24 12:45:07</t>
+          <t>2025-06-24 16:59:44</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>-0.40602</v>
+        <v>2.86242</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-06-24 14:35:48</t>
+          <t>2025-06-24 17:23:26</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6112,23 +6112,23 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>145.27</v>
+        <v>2.1942</v>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2025-06-24 14:35:48</t>
+          <t>2025-06-24 17:23:26</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>8.19</v>
+        <v>-5.17871999</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-06-24 15:18:26</t>
+          <t>2025-06-24 17:50:59</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6142,28 +6142,28 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>144.41</v>
+        <v>144.97</v>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2025-06-24 15:18:26</t>
+          <t>2025-06-24 17:50:59</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>-5.6</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-06-24 16:59:44</t>
+          <t>2025-06-25 04:56:33</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6172,28 +6172,28 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2.2061</v>
+        <v>145.39</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2025-06-24 16:59:44</t>
+          <t>2025-06-25 04:56:33</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>2.86242</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-06-24 17:23:26</t>
+          <t>2025-06-25 05:13:14</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>SOLUSDT</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6202,23 +6202,23 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2.1942</v>
+        <v>145.59</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2025-06-24 17:23:26</t>
+          <t>2025-06-25 05:13:14</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>-5.17871999</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-06-24 17:50:59</t>
+          <t>2025-06-25 05:13:14</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6232,23 +6232,23 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>144.97</v>
+        <v>145.59</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2025-06-24 17:50:59</t>
+          <t>2025-06-25 05:13:14</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>3.78</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-06-25 04:56:33</t>
+          <t>2025-06-25 06:27:44</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6262,23 +6262,23 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>145.39</v>
+        <v>146.1</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2025-06-25 04:56:33</t>
+          <t>2025-06-25 06:27:44</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>3.01</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-06-25 05:13:14</t>
+          <t>2025-06-25 07:45:30</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6292,28 +6292,28 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>145.59</v>
+        <v>147.1</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2025-06-25 05:13:14</t>
+          <t>2025-06-25 07:45:30</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>0.34</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-06-25 05:13:14</t>
+          <t>2025-06-25 09:30:31</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6322,28 +6322,28 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>145.59</v>
+        <v>2.1859</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2025-06-25 05:13:14</t>
+          <t>2025-06-25 09:30:31</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>0.85</v>
+        <v>0.52136</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-06-25 06:27:44</t>
+          <t>2025-06-25 09:30:31</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6352,28 +6352,28 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>146.1</v>
+        <v>2.1858</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2025-06-25 06:27:44</t>
+          <t>2025-06-25 09:30:31</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>3.43</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-06-25 07:45:30</t>
+          <t>2025-06-25 09:30:31</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SOLUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6382,17 +6382,77 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>147.1</v>
+        <v>2.1856</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2025-06-25 07:45:30</t>
+          <t>2025-06-25 09:30:31</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>5.95</v>
+        <v>0.81696</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-06-25 09:30:31</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>XRPUSDT</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>2.1856</v>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2025-06-25 09:30:31</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>0.5713200000000001</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-06-25 11:57:08</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>107149.2</v>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2025-06-25 11:57:08</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>3.0789</v>
       </c>
     </row>
   </sheetData>
